--- a/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_rf_o.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base0/b0_ci_results_gs_rf_o.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>102.952205324173</v>
+        <v>79.61102972030639</v>
       </c>
       <c r="C2">
-        <v>2.544807378467487</v>
+        <v>3.153558978892602</v>
       </c>
       <c r="D2">
-        <v>4.617814636230468</v>
+        <v>5.355604648590088</v>
       </c>
       <c r="E2">
-        <v>0.3231908124074777</v>
+        <v>1.29524719085176</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -585,28 +585,28 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.7067307692307693</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="K2">
-        <v>0.7163461538461539</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L2">
-        <v>0.7198067632850241</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="M2">
-        <v>0.6763285024154589</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N2">
-        <v>0.7246376811594203</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="O2">
-        <v>0.7087699739873653</v>
+        <v>0.6830409356725147</v>
       </c>
       <c r="P2">
-        <v>0.01724877261686667</v>
+        <v>0.02231436728460692</v>
       </c>
       <c r="Q2">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>222.1371315002442</v>
+        <v>165.6526768684387</v>
       </c>
       <c r="C3">
-        <v>8.001862923314366</v>
+        <v>7.369546679008047</v>
       </c>
       <c r="D3">
-        <v>7.287122297286987</v>
+        <v>7.618588447570801</v>
       </c>
       <c r="E3">
-        <v>0.5970686190867964</v>
+        <v>0.7121886673783947</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -638,28 +638,28 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.7115384615384616</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="K3">
-        <v>0.7259615384615384</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L3">
-        <v>0.7246376811594203</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M3">
-        <v>0.6859903381642513</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="N3">
-        <v>0.7198067632850241</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="O3">
-        <v>0.7135869565217392</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="P3">
-        <v>0.01469492746386056</v>
+        <v>0.03469566543670485</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>471.7631346225738</v>
+        <v>366.6348007202149</v>
       </c>
       <c r="C4">
-        <v>4.117872111753742</v>
+        <v>2.676826851720194</v>
       </c>
       <c r="D4">
-        <v>7.995275974273682</v>
+        <v>8.105204772949218</v>
       </c>
       <c r="E4">
-        <v>0.4754661703201967</v>
+        <v>0.9818078716024284</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -691,28 +691,28 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.7115384615384616</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="K4">
-        <v>0.7259615384615384</v>
+        <v>0.6374269005847953</v>
       </c>
       <c r="L4">
-        <v>0.7246376811594203</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M4">
-        <v>0.6908212560386473</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="N4">
-        <v>0.7198067632850241</v>
+        <v>0.6608187134502924</v>
       </c>
       <c r="O4">
-        <v>0.7145531400966184</v>
+        <v>0.6771929824561405</v>
       </c>
       <c r="P4">
-        <v>0.01289760199460191</v>
+        <v>0.02752889425950834</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>184.299035358429</v>
+        <v>145.3198683261871</v>
       </c>
       <c r="C5">
-        <v>5.425986584932351</v>
+        <v>7.335886291732193</v>
       </c>
       <c r="D5">
-        <v>8.665064811706543</v>
+        <v>8.611403942108154</v>
       </c>
       <c r="E5">
-        <v>0.5687072705789247</v>
+        <v>0.780810425663241</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -744,28 +744,28 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.7067307692307693</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="K5">
-        <v>0.7355769230769231</v>
+        <v>0.6257309941520468</v>
       </c>
       <c r="L5">
-        <v>0.714975845410628</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="M5">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N5">
-        <v>0.7198067632850241</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="O5">
-        <v>0.7145484949832777</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="P5">
-        <v>0.01332827511676838</v>
+        <v>0.03528211258245228</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>354.2380306720734</v>
+        <v>279.2664217472076</v>
       </c>
       <c r="C6">
-        <v>2.036187671843587</v>
+        <v>0.7290879613693813</v>
       </c>
       <c r="D6">
-        <v>8.493473625183105</v>
+        <v>7.843661165237426</v>
       </c>
       <c r="E6">
-        <v>1.091187252582552</v>
+        <v>1.206233334703745</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -797,28 +797,28 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.7115384615384616</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="K6">
-        <v>0.7307692307692307</v>
+        <v>0.6257309941520468</v>
       </c>
       <c r="L6">
-        <v>0.7198067632850241</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M6">
-        <v>0.7053140096618358</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N6">
-        <v>0.7342995169082126</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="O6">
-        <v>0.7203455964325529</v>
+        <v>0.6865497076023391</v>
       </c>
       <c r="P6">
-        <v>0.01101969706003753</v>
+        <v>0.03597323157714547</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>710.1002934932709</v>
+        <v>560.4598927497864</v>
       </c>
       <c r="C7">
-        <v>4.676062636156514</v>
+        <v>4.344554936548441</v>
       </c>
       <c r="D7">
-        <v>8.651526498794556</v>
+        <v>9.690051841735841</v>
       </c>
       <c r="E7">
-        <v>1.151979565199327</v>
+        <v>0.6066231479744405</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -850,28 +850,28 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.7067307692307693</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="K7">
-        <v>0.7355769230769231</v>
+        <v>0.6374269005847953</v>
       </c>
       <c r="L7">
-        <v>0.714975845410628</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M7">
-        <v>0.7004830917874396</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N7">
-        <v>0.714975845410628</v>
+        <v>0.672514619883041</v>
       </c>
       <c r="O7">
-        <v>0.7145484949832777</v>
+        <v>0.6818713450292397</v>
       </c>
       <c r="P7">
-        <v>0.01184493518655172</v>
+        <v>0.02831279166528701</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>244.8958503723144</v>
+        <v>194.56883020401</v>
       </c>
       <c r="C8">
-        <v>3.779341924090141</v>
+        <v>3.875953987559394</v>
       </c>
       <c r="D8">
-        <v>8.307136964797973</v>
+        <v>8.033741188049316</v>
       </c>
       <c r="E8">
-        <v>0.8280598967456256</v>
+        <v>0.6471007326836545</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -903,28 +903,28 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.7067307692307693</v>
+        <v>0.7076023391812866</v>
       </c>
       <c r="K8">
-        <v>0.7307692307692307</v>
+        <v>0.6374269005847953</v>
       </c>
       <c r="L8">
-        <v>0.714975845410628</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M8">
-        <v>0.7101449275362319</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="N8">
-        <v>0.7246376811594203</v>
+        <v>0.672514619883041</v>
       </c>
       <c r="O8">
-        <v>0.717451690821256</v>
+        <v>0.6795321637426901</v>
       </c>
       <c r="P8">
-        <v>0.008982784505443301</v>
+        <v>0.02379764906359742</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>469.4343186855316</v>
+        <v>373.7291104316711</v>
       </c>
       <c r="C9">
-        <v>1.492534811201161</v>
+        <v>2.609316379437625</v>
       </c>
       <c r="D9">
-        <v>7.853940343856811</v>
+        <v>9.065652847290039</v>
       </c>
       <c r="E9">
-        <v>1.173207283270189</v>
+        <v>0.8058977268615638</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -956,28 +956,28 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.7115384615384616</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="K9">
-        <v>0.7307692307692307</v>
+        <v>0.6432748538011696</v>
       </c>
       <c r="L9">
-        <v>0.7053140096618358</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M9">
-        <v>0.7004830917874396</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="N9">
-        <v>0.7198067632850241</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O9">
-        <v>0.7135823114083983</v>
+        <v>0.6853801169590643</v>
       </c>
       <c r="P9">
-        <v>0.0107542148855353</v>
+        <v>0.02826443502595221</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>928.4783356189728</v>
+        <v>735.63435754776</v>
       </c>
       <c r="C10">
-        <v>4.76674052745704</v>
+        <v>4.748194241404332</v>
       </c>
       <c r="D10">
-        <v>10.08529014587402</v>
+        <v>9.799393653869629</v>
       </c>
       <c r="E10">
-        <v>0.4314572642112289</v>
+        <v>0.6929804153064155</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1009,28 +1009,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.7115384615384616</v>
+        <v>0.7309941520467836</v>
       </c>
       <c r="K10">
-        <v>0.7355769230769231</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L10">
-        <v>0.714975845410628</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M10">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N10">
-        <v>0.7246376811594203</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="O10">
-        <v>0.7164762170196953</v>
+        <v>0.6865497076023391</v>
       </c>
       <c r="P10">
-        <v>0.01335454817097216</v>
+        <v>0.03237041521192527</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>193.3887256622315</v>
+        <v>147.3731284618378</v>
       </c>
       <c r="C11">
-        <v>3.044567696153169</v>
+        <v>3.740980663473278</v>
       </c>
       <c r="D11">
-        <v>8.702352809906007</v>
+        <v>9.444568300247193</v>
       </c>
       <c r="E11">
-        <v>0.6684433321203685</v>
+        <v>0.7196709822805349</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1062,28 +1062,28 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.6971153846153846</v>
+        <v>0.7309941520467836</v>
       </c>
       <c r="K11">
-        <v>0.7211538461538461</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L11">
-        <v>0.6956521739130435</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M11">
-        <v>0.6908212560386473</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N11">
-        <v>0.7391304347826086</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="O11">
-        <v>0.708774619100706</v>
+        <v>0.67953216374269</v>
       </c>
       <c r="P11">
-        <v>0.01846716204440657</v>
+        <v>0.03760920512471</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>369.138858795166</v>
+        <v>275.580838394165</v>
       </c>
       <c r="C12">
-        <v>4.504806119762514</v>
+        <v>6.130986312063262</v>
       </c>
       <c r="D12">
-        <v>9.71026349067688</v>
+        <v>9.304454898834228</v>
       </c>
       <c r="E12">
-        <v>0.5018615107909011</v>
+        <v>0.2441531128692433</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1115,28 +1115,28 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>0.7019230769230769</v>
+        <v>0.695906432748538</v>
       </c>
       <c r="K12">
-        <v>0.7259615384615384</v>
+        <v>0.6198830409356725</v>
       </c>
       <c r="L12">
-        <v>0.7053140096618358</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M12">
-        <v>0.6908212560386473</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="N12">
-        <v>0.7198067632850241</v>
+        <v>0.6608187134502924</v>
       </c>
       <c r="O12">
-        <v>0.7087653288740245</v>
+        <v>0.6736842105263159</v>
       </c>
       <c r="P12">
-        <v>0.01263598562848268</v>
+        <v>0.0303643391479466</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>730.1083028316498</v>
+        <v>540.2219201087952</v>
       </c>
       <c r="C13">
-        <v>6.535654680628387</v>
+        <v>7.937239193725893</v>
       </c>
       <c r="D13">
-        <v>9.348086309432983</v>
+        <v>8.669245719909668</v>
       </c>
       <c r="E13">
-        <v>0.6736506353172067</v>
+        <v>1.569213717805359</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1168,28 +1168,28 @@
         <v>27</v>
       </c>
       <c r="J13">
-        <v>0.7019230769230769</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="K13">
-        <v>0.7163461538461539</v>
+        <v>0.6257309941520468</v>
       </c>
       <c r="L13">
-        <v>0.7004830917874396</v>
+        <v>0.695906432748538</v>
       </c>
       <c r="M13">
-        <v>0.6908212560386473</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="N13">
-        <v>0.7246376811594203</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="O13">
-        <v>0.7068422519509476</v>
+        <v>0.6807017543859649</v>
       </c>
       <c r="P13">
-        <v>0.01206905930807687</v>
+        <v>0.03085592037022905</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>275.8600952625275</v>
+        <v>207.8336980819702</v>
       </c>
       <c r="C14">
-        <v>7.579280052922943</v>
+        <v>5.867460391018555</v>
       </c>
       <c r="D14">
-        <v>8.951318979263306</v>
+        <v>9.225994634628297</v>
       </c>
       <c r="E14">
-        <v>0.79847708062126</v>
+        <v>1.443744796054869</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1221,28 +1221,28 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.7259615384615384</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="K14">
-        <v>0.7355769230769231</v>
+        <v>0.5906432748538012</v>
       </c>
       <c r="L14">
-        <v>0.7004830917874396</v>
+        <v>0.695906432748538</v>
       </c>
       <c r="M14">
-        <v>0.6811594202898551</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N14">
-        <v>0.7294685990338164</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O14">
-        <v>0.7145299145299145</v>
+        <v>0.671345029239766</v>
       </c>
       <c r="P14">
-        <v>0.02053156596162796</v>
+        <v>0.04382454735718174</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>532.9098797321319</v>
+        <v>398.1793180942535</v>
       </c>
       <c r="C15">
-        <v>5.333291381830626</v>
+        <v>7.723505441624931</v>
       </c>
       <c r="D15">
-        <v>8.343397617340088</v>
+        <v>9.434200716018676</v>
       </c>
       <c r="E15">
-        <v>0.5683756130931605</v>
+        <v>0.6022756383302627</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1274,28 +1274,28 @@
         <v>29</v>
       </c>
       <c r="J15">
-        <v>0.7211538461538461</v>
+        <v>0.7134502923976608</v>
       </c>
       <c r="K15">
-        <v>0.7307692307692307</v>
+        <v>0.6257309941520468</v>
       </c>
       <c r="L15">
-        <v>0.6859903381642513</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M15">
-        <v>0.6908212560386473</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N15">
-        <v>0.7246376811594203</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="O15">
-        <v>0.7106744704570792</v>
+        <v>0.6830409356725146</v>
       </c>
       <c r="P15">
-        <v>0.01850429393361901</v>
+        <v>0.03036433914794658</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1063.790792655945</v>
+        <v>798.6870014190674</v>
       </c>
       <c r="C16">
-        <v>15.699692443914</v>
+        <v>13.12688372639381</v>
       </c>
       <c r="D16">
-        <v>8.745598649978637</v>
+        <v>9.765172815322876</v>
       </c>
       <c r="E16">
-        <v>0.7716793345971691</v>
+        <v>0.7038044426011815</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1327,28 +1327,28 @@
         <v>30</v>
       </c>
       <c r="J16">
-        <v>0.7067307692307693</v>
+        <v>0.7309941520467836</v>
       </c>
       <c r="K16">
-        <v>0.7259615384615384</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L16">
-        <v>0.6859903381642513</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M16">
-        <v>0.6859903381642513</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="N16">
-        <v>0.7246376811594203</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="O16">
-        <v>0.7058621330360462</v>
+        <v>0.6853801169590643</v>
       </c>
       <c r="P16">
-        <v>0.01758998747858348</v>
+        <v>0.03168705774068789</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>363.6330786705017</v>
+        <v>276.1039679050446</v>
       </c>
       <c r="C17">
-        <v>12.24686353758815</v>
+        <v>7.43184846257954</v>
       </c>
       <c r="D17">
-        <v>8.161359405517578</v>
+        <v>8.659022521972656</v>
       </c>
       <c r="E17">
-        <v>0.7287781209517643</v>
+        <v>0.705942203167706</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1380,28 +1380,28 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.7211538461538461</v>
+        <v>0.7076023391812866</v>
       </c>
       <c r="K17">
-        <v>0.7259615384615384</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L17">
-        <v>0.6908212560386473</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M17">
-        <v>0.6763285024154589</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="N17">
-        <v>0.7246376811594203</v>
+        <v>0.672514619883041</v>
       </c>
       <c r="O17">
-        <v>0.7077805648457822</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="P17">
-        <v>0.02034898135686244</v>
+        <v>0.02588999253939025</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>707.4888279914856</v>
+        <v>528.5389791488648</v>
       </c>
       <c r="C18">
-        <v>9.460781936894749</v>
+        <v>10.57833592395929</v>
       </c>
       <c r="D18">
-        <v>8.849206781387329</v>
+        <v>10.32908625602722</v>
       </c>
       <c r="E18">
-        <v>0.2418753190786902</v>
+        <v>0.607687181576099</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1433,28 +1433,28 @@
         <v>32</v>
       </c>
       <c r="J18">
-        <v>0.7115384615384616</v>
+        <v>0.7134502923976608</v>
       </c>
       <c r="K18">
-        <v>0.7115384615384616</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L18">
-        <v>0.6859903381642513</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M18">
-        <v>0.6811594202898551</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N18">
-        <v>0.7294685990338164</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O18">
-        <v>0.7039390561129693</v>
+        <v>0.67953216374269</v>
       </c>
       <c r="P18">
-        <v>0.01793503705948622</v>
+        <v>0.02874434088291113</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1411.903028440476</v>
+        <v>1051.404030275345</v>
       </c>
       <c r="C19">
-        <v>18.61526998954593</v>
+        <v>20.24655064227002</v>
       </c>
       <c r="D19">
-        <v>9.295745754241944</v>
+        <v>9.293174123764038</v>
       </c>
       <c r="E19">
-        <v>0.3343901912445003</v>
+        <v>0.6388298172780389</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1486,28 +1486,28 @@
         <v>33</v>
       </c>
       <c r="J19">
-        <v>0.7115384615384616</v>
+        <v>0.7076023391812866</v>
       </c>
       <c r="K19">
-        <v>0.7307692307692307</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L19">
-        <v>0.6811594202898551</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M19">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N19">
-        <v>0.7101449275362319</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="O19">
-        <v>0.7058528428093646</v>
+        <v>0.6807017543859649</v>
       </c>
       <c r="P19">
-        <v>0.01664568053436819</v>
+        <v>0.02682419869281806</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>213.8816135406494</v>
+        <v>155.6257391452789</v>
       </c>
       <c r="C20">
-        <v>4.812159301575955</v>
+        <v>4.57491556096189</v>
       </c>
       <c r="D20">
-        <v>8.820332860946655</v>
+        <v>9.213892698287964</v>
       </c>
       <c r="E20">
-        <v>0.170943470229432</v>
+        <v>0.2272827432227712</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1539,25 +1539,25 @@
         <v>34</v>
       </c>
       <c r="J20">
-        <v>0.7067307692307693</v>
+        <v>0.7309941520467836</v>
       </c>
       <c r="K20">
-        <v>0.7259615384615384</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L20">
-        <v>0.7004830917874396</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="M20">
-        <v>0.6908212560386473</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N20">
-        <v>0.714975845410628</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="O20">
-        <v>0.7077945001858046</v>
+        <v>0.67953216374269</v>
       </c>
       <c r="P20">
-        <v>0.01203571545145085</v>
+        <v>0.03742690058479532</v>
       </c>
       <c r="Q20">
         <v>14</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>411.9272461891175</v>
+        <v>300.0574278354645</v>
       </c>
       <c r="C21">
-        <v>14.58382300461977</v>
+        <v>7.881108495772642</v>
       </c>
       <c r="D21">
-        <v>8.94323558807373</v>
+        <v>9.212225580215454</v>
       </c>
       <c r="E21">
-        <v>0.1091794381581718</v>
+        <v>0.2208091790472646</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1592,28 +1592,28 @@
         <v>35</v>
       </c>
       <c r="J21">
-        <v>0.7019230769230769</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="K21">
-        <v>0.7211538461538461</v>
+        <v>0.6081871345029239</v>
       </c>
       <c r="L21">
-        <v>0.6956521739130435</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M21">
-        <v>0.6908212560386473</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="N21">
-        <v>0.7246376811594203</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="O21">
-        <v>0.7068376068376068</v>
+        <v>0.67953216374269</v>
       </c>
       <c r="P21">
-        <v>0.01362047988088501</v>
+        <v>0.03797118849297762</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>798.4127663612365</v>
+        <v>578.5482841014862</v>
       </c>
       <c r="C22">
-        <v>22.60067138958386</v>
+        <v>13.72566937617227</v>
       </c>
       <c r="D22">
-        <v>9.08426570892334</v>
+        <v>8.893601322174073</v>
       </c>
       <c r="E22">
-        <v>0.5621267383156241</v>
+        <v>0.812146115960644</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1645,28 +1645,28 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <v>0.7019230769230769</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="K22">
-        <v>0.7211538461538461</v>
+        <v>0.6198830409356725</v>
       </c>
       <c r="L22">
-        <v>0.6859903381642513</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M22">
-        <v>0.6956521739130435</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="N22">
-        <v>0.7294685990338164</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="O22">
-        <v>0.7068376068376068</v>
+        <v>0.6725146198830408</v>
       </c>
       <c r="P22">
-        <v>0.01613066422113191</v>
+        <v>0.0334919790953833</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>303.8161528587341</v>
+        <v>221.7315716743469</v>
       </c>
       <c r="C23">
-        <v>12.49865094275314</v>
+        <v>7.285105082407857</v>
       </c>
       <c r="D23">
-        <v>8.566672945022583</v>
+        <v>8.532318162918092</v>
       </c>
       <c r="E23">
-        <v>0.4388531745748657</v>
+        <v>0.9984167873993295</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1698,28 +1698,28 @@
         <v>37</v>
       </c>
       <c r="J23">
-        <v>0.7115384615384616</v>
+        <v>0.7134502923976608</v>
       </c>
       <c r="K23">
-        <v>0.7259615384615384</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L23">
-        <v>0.6908212560386473</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M23">
-        <v>0.6763285024154589</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N23">
-        <v>0.714975845410628</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="O23">
-        <v>0.7039251207729469</v>
+        <v>0.6643274853801169</v>
       </c>
       <c r="P23">
-        <v>0.01788278386001145</v>
+        <v>0.0394205837341584</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>591.2791940689087</v>
+        <v>428.6499803543091</v>
       </c>
       <c r="C24">
-        <v>20.71670639883702</v>
+        <v>8.5850468578035</v>
       </c>
       <c r="D24">
-        <v>9.065100574493409</v>
+        <v>8.654125833511353</v>
       </c>
       <c r="E24">
-        <v>0.1686119997297311</v>
+        <v>0.529078408081503</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1751,28 +1751,28 @@
         <v>38</v>
       </c>
       <c r="J24">
-        <v>0.7067307692307693</v>
+        <v>0.7134502923976608</v>
       </c>
       <c r="K24">
-        <v>0.7163461538461539</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L24">
-        <v>0.6908212560386473</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="M24">
-        <v>0.6859903381642513</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="N24">
-        <v>0.7198067632850241</v>
+        <v>0.695906432748538</v>
       </c>
       <c r="O24">
-        <v>0.7039390561129691</v>
+        <v>0.6783625730994153</v>
       </c>
       <c r="P24">
-        <v>0.01347402702968556</v>
+        <v>0.0340991338879842</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1185.693541669846</v>
+        <v>855.6171599388123</v>
       </c>
       <c r="C25">
-        <v>34.72879108683119</v>
+        <v>18.92719313359923</v>
       </c>
       <c r="D25">
-        <v>9.191789913177491</v>
+        <v>9.687654733657837</v>
       </c>
       <c r="E25">
-        <v>0.2674110349744609</v>
+        <v>0.08969187644659916</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1804,28 +1804,28 @@
         <v>39</v>
       </c>
       <c r="J25">
-        <v>0.7067307692307693</v>
+        <v>0.7251461988304093</v>
       </c>
       <c r="K25">
-        <v>0.7211538461538461</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L25">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="M25">
-        <v>0.6714975845410628</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="N25">
-        <v>0.7198067632850241</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="O25">
-        <v>0.7029682274247492</v>
+        <v>0.6760233918128653</v>
       </c>
       <c r="P25">
-        <v>0.01828844302732499</v>
+        <v>0.0355909334612934</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>407.0989737033844</v>
+        <v>293.0247055530548</v>
       </c>
       <c r="C26">
-        <v>13.70137324682335</v>
+        <v>9.609466544459556</v>
       </c>
       <c r="D26">
-        <v>8.938098812103272</v>
+        <v>8.837012195587159</v>
       </c>
       <c r="E26">
-        <v>0.1498792943100112</v>
+        <v>0.5207470551055323</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1857,28 +1857,28 @@
         <v>40</v>
       </c>
       <c r="J26">
-        <v>0.7019230769230769</v>
+        <v>0.695906432748538</v>
       </c>
       <c r="K26">
-        <v>0.7067307692307693</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L26">
-        <v>0.6811594202898551</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="M26">
-        <v>0.6714975845410628</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="N26">
-        <v>0.7342995169082126</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="O26">
-        <v>0.6991220735785953</v>
+        <v>0.6701754385964911</v>
       </c>
       <c r="P26">
-        <v>0.02185845235247861</v>
+        <v>0.02879189152068109</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>785.3803853511811</v>
+        <v>564.882449388504</v>
       </c>
       <c r="C27">
-        <v>24.89479552966299</v>
+        <v>16.65837780561644</v>
       </c>
       <c r="D27">
-        <v>7.887516736984253</v>
+        <v>8.316297578811646</v>
       </c>
       <c r="E27">
-        <v>1.026722474368686</v>
+        <v>0.7387573452154624</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1910,28 +1910,28 @@
         <v>41</v>
       </c>
       <c r="J27">
-        <v>0.7115384615384616</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="K27">
-        <v>0.7355769230769231</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L27">
-        <v>0.6811594202898551</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="M27">
-        <v>0.6763285024154589</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="N27">
-        <v>0.7294685990338164</v>
+        <v>0.672514619883041</v>
       </c>
       <c r="O27">
-        <v>0.706814381270903</v>
+        <v>0.6807017543859648</v>
       </c>
       <c r="P27">
-        <v>0.02429148064855165</v>
+        <v>0.02972693573599729</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1080.687903642654</v>
+        <v>779.7822259902954</v>
       </c>
       <c r="C28">
-        <v>151.4246120551139</v>
+        <v>103.0768519034943</v>
       </c>
       <c r="D28">
-        <v>2.314561605453491</v>
+        <v>2.692636728286743</v>
       </c>
       <c r="E28">
-        <v>1.741428425180012</v>
+        <v>1.833770449240105</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -1963,28 +1963,28 @@
         <v>42</v>
       </c>
       <c r="J28">
-        <v>0.7163461538461539</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="K28">
-        <v>0.7355769230769231</v>
+        <v>0.6257309941520468</v>
       </c>
       <c r="L28">
-        <v>0.6908212560386473</v>
+        <v>0.695906432748538</v>
       </c>
       <c r="M28">
-        <v>0.6763285024154589</v>
+        <v>0.6900584795321637</v>
       </c>
       <c r="N28">
-        <v>0.7198067632850241</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="O28">
-        <v>0.7077759197324415</v>
+        <v>0.6783625730994152</v>
       </c>
       <c r="P28">
-        <v>0.02129547638907641</v>
+        <v>0.02742933192879197</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
